--- a/Energy.xlsx
+++ b/Energy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoha Mushtaq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF22A57-E7FA-4C87-BB4E-2EA1648F555C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BC6AD9-A5A9-4D15-822C-6B0A319495BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thermal" sheetId="1" r:id="rId1"/>
@@ -286,9 +286,6 @@
     <t>CHASNUPP-I</t>
   </si>
   <si>
-    <t>Thatta sindh</t>
-  </si>
-  <si>
     <t>Bahawalpur</t>
   </si>
   <si>
@@ -317,6 +314,9 @@
   </si>
   <si>
     <t>Engro Power Gen. Thar</t>
+  </si>
+  <si>
+    <t>Wind Farm,Thatta sindh</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A665" workbookViewId="0">
+    <sheetView topLeftCell="A665" workbookViewId="0">
       <selection activeCell="L693" sqref="L693"/>
     </sheetView>
   </sheetViews>
@@ -10490,7 +10490,7 @@
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C646" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D646">
         <v>2019</v>
@@ -10501,7 +10501,7 @@
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C647" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D647">
         <v>2019</v>
@@ -11226,7 +11226,7 @@
     </row>
     <row r="700" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C700" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D700">
         <v>2020</v>
@@ -11237,7 +11237,7 @@
     </row>
     <row r="701" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C701" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D701">
         <v>2020</v>
@@ -11528,7 +11528,7 @@
         <v>33.78</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16">
         <v>2004</v>
@@ -11766,7 +11766,7 @@
         <v>33.78</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>2005</v>
@@ -12004,7 +12004,7 @@
         <v>33.78</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D44">
         <v>2006</v>
@@ -12242,7 +12242,7 @@
         <v>33.78</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D58">
         <v>2007</v>
@@ -12480,7 +12480,7 @@
         <v>33.78</v>
       </c>
       <c r="C72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D72">
         <v>2008</v>
@@ -12718,7 +12718,7 @@
         <v>33.78</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D86">
         <v>2009</v>
@@ -12973,7 +12973,7 @@
         <v>33.78</v>
       </c>
       <c r="C101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D101">
         <v>2010</v>
@@ -13228,7 +13228,7 @@
         <v>33.78</v>
       </c>
       <c r="C116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D116">
         <v>2011</v>
@@ -13517,7 +13517,7 @@
         <v>33.78</v>
       </c>
       <c r="C133" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D133">
         <v>2012</v>
@@ -13834,7 +13834,7 @@
         <v>33.78</v>
       </c>
       <c r="C152" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D152">
         <v>2013</v>
@@ -14168,7 +14168,7 @@
         <v>33.78</v>
       </c>
       <c r="C172" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D172">
         <v>2014</v>
@@ -14558,7 +14558,7 @@
         <v>33.78</v>
       </c>
       <c r="C196" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D196">
         <v>2015</v>
@@ -14948,7 +14948,7 @@
         <v>33.78</v>
       </c>
       <c r="C220" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D220">
         <v>2016</v>
@@ -15338,7 +15338,7 @@
         <v>33.78</v>
       </c>
       <c r="C244" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D244">
         <v>2017</v>
@@ -15728,7 +15728,7 @@
         <v>33.78</v>
       </c>
       <c r="C268" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D268">
         <v>2018</v>
@@ -15796,7 +15796,7 @@
         <v>34.39</v>
       </c>
       <c r="C272" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D272">
         <v>2018</v>
@@ -16118,7 +16118,7 @@
         <v>34.340000000000003</v>
       </c>
       <c r="C292" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D292">
         <v>2018</v>
@@ -16129,7 +16129,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C293" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D293">
         <v>2018</v>
@@ -16164,7 +16164,7 @@
         <v>33.78</v>
       </c>
       <c r="C295" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D295">
         <v>2019</v>
@@ -16232,7 +16232,7 @@
         <v>34.39</v>
       </c>
       <c r="C299" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D299">
         <v>2019</v>
@@ -16554,7 +16554,7 @@
         <v>34.340000000000003</v>
       </c>
       <c r="C319" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D319">
         <v>2019</v>
@@ -16565,7 +16565,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C320" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D320">
         <v>2019</v>
@@ -16600,7 +16600,7 @@
         <v>33.78</v>
       </c>
       <c r="C322" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D322">
         <v>2020</v>
@@ -16668,7 +16668,7 @@
         <v>34.39</v>
       </c>
       <c r="C326" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D326">
         <v>2020</v>
@@ -16990,7 +16990,7 @@
         <v>34.340000000000003</v>
       </c>
       <c r="C346" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D346">
         <v>2020</v>
@@ -17001,7 +17001,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C347" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D347">
         <v>2020</v>
@@ -17018,7 +17018,7 @@
         <v>33.450000000000003</v>
       </c>
       <c r="C348" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D348">
         <v>2020</v>
@@ -17683,8 +17683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CB17D7-EDEF-42A0-B892-03EEC297430F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17709,7 +17709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>67.92</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>24.74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2">
         <v>2013</v>
@@ -17726,7 +17726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>67.92</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>24.74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>2014</v>
@@ -17743,7 +17743,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>67.92</v>
       </c>
@@ -17751,7 +17751,7 @@
         <v>24.74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <v>2015</v>
@@ -17760,7 +17760,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>67.92</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>24.74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>2016</v>
@@ -17777,7 +17777,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>67.92</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>24.74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D6">
         <v>2017</v>
@@ -17794,7 +17794,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>67.92</v>
       </c>
@@ -17802,7 +17802,7 @@
         <v>24.74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D7">
         <v>2018</v>
@@ -17811,7 +17811,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>67.92</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>24.74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D8">
         <v>2019</v>
@@ -17828,7 +17828,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>67.92</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>24.74</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D9">
         <v>2020</v>
@@ -17885,7 +17885,7 @@
         <v>29.35</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2">
         <v>2016</v>
@@ -17902,7 +17902,7 @@
         <v>29.35</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3">
         <v>2017</v>
@@ -17919,7 +17919,7 @@
         <v>29.35</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4">
         <v>2018</v>
@@ -17936,7 +17936,7 @@
         <v>32.29</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5">
         <v>2018</v>
@@ -17953,7 +17953,7 @@
         <v>30.66</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>2018</v>
@@ -17970,7 +17970,7 @@
         <v>29.35</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>2019</v>
@@ -17987,7 +17987,7 @@
         <v>32.29</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>2019</v>
@@ -18004,7 +18004,7 @@
         <v>30.66</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <v>2019</v>
@@ -18021,7 +18021,7 @@
         <v>29.35</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10">
         <v>2020</v>
@@ -18038,7 +18038,7 @@
         <v>32.29</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <v>2020</v>
@@ -18055,7 +18055,7 @@
         <v>30.66</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12">
         <v>2020</v>
